--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_18_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613637.803570859</v>
+        <v>1546229.722295703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5355190.694075863</v>
+        <v>5355190.694075866</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6486487.13080117</v>
+        <v>6486487.130801169</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>143.6986535128386</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>70.55237628599311</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="Y11" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.7077054127944</v>
+        <v>49.11874071961858</v>
       </c>
       <c r="H12" t="n">
         <v>115.7212625938658</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>70.34110289740907</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T12" t="n">
-        <v>134.8977484594998</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.4248527018888</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="S13" t="n">
-        <v>100.1853784459441</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T13" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>154.610231147833</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>143.6986535128386</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>70.55237628599311</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>143.6986535128387</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>143.6986535128386</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T15" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="V16" t="n">
-        <v>154.6102311478329</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>163.1456102552665</v>
+        <v>154.610231147833</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>70.55237628599302</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>143.6986535128387</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>143.6986535128387</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>73.35755061542956</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>70.34110289740907</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="V18" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="W18" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>158.0955184526211</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>154.6102311478329</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>159.6603229504783</v>
       </c>
     </row>
     <row r="20">
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>163.1456102552664</v>
       </c>
-      <c r="U20" t="n">
-        <v>163.1456102552664</v>
-      </c>
-      <c r="V20" t="n">
-        <v>70.55237628599302</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>143.6986535128387</v>
       </c>
       <c r="Y20" t="n">
         <v>163.1456102552664</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>27.97739091897285</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H21" t="n">
         <v>115.7212625938658</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>43.4152957614449</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>163.1456102552664</v>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>163.1456102552664</v>
+        <v>9.427580897122393</v>
       </c>
       <c r="X22" t="n">
-        <v>154.6102311478331</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>149.7105534177961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>112.6024107986161</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>183.3557715772301</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9824692835151</v>
       </c>
       <c r="U23" t="n">
         <v>249.9955048348989</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>326.2912205105329</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>326.2912205105328</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>115.7212625938658</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>70.34110289740907</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U24" t="n">
-        <v>102.4066746105814</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>195.359831924107</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>118.5775285934868</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8314735854091</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.46083754121361</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6091405317433</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>287.3973070256772</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="H26" t="n">
-        <v>326.2912205105329</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9824692835151</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>326.2912205105329</v>
+        <v>216.3502866754651</v>
       </c>
       <c r="X26" t="n">
-        <v>326.2912205105329</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>141.7698448091537</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>70.34110289740907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>172.3308460267565</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>210.791492737841</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.159852453347</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>91.50802412950905</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>70.6246202424075</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>138.7107058999012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>54.4248527018888</v>
       </c>
       <c r="R28" t="n">
-        <v>164.3430117350647</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>138.941519258333</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>326.2912205105329</v>
+        <v>287.3973070256773</v>
       </c>
       <c r="E29" t="n">
-        <v>326.2912205105329</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>36.3066951229822</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>183.3557715772301</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>46.23486544149176</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>115.7212625938658</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>71.66315755721155</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>70.34110289740907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>202.0286507014978</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2961,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.4838608183643</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>138.7107058999012</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.78000272165374</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6091405317433</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>192.2923111266226</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>219.4997251242531</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>183.3557715772301</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>213.9824692835151</v>
@@ -3088,10 +3088,10 @@
         <v>249.9955048348989</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>326.2912205105329</v>
+        <v>155.1219903191768</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>115.7212625938658</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.3968243714374</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>114.7090302521019</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>13.8729810656735</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>235.792436473916</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>70.55237628599302</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>163.1456102552664</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>163.1456102552664</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>163.1456102552664</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,67 +3350,67 @@
         <v>163.1456102552664</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>143.6986535128387</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>163.1456102552664</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>115.7212625938658</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>31.95068609766066</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>138.7107058999012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.6102311478331</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>37.36899429097324</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>70.55237628599302</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>143.6986535128386</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>163.1098535339984</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>70.34110289740907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>163.1456102552664</v>
       </c>
       <c r="V39" t="n">
-        <v>73.35755061542956</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>138.7107058999012</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.78000272165374</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.610231147833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>141.7346018245858</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="C41" t="n">
         <v>143.6986535128386</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>163.1456102552664</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>163.1456102552664</v>
-      </c>
-      <c r="F41" t="n">
-        <v>163.1456102552664</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>76.35766709096515</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>71.66315755721155</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6986535128386</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="U42" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>163.1456102552664</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="H43" t="n">
-        <v>158.0955184526211</v>
+        <v>154.6102311478331</v>
       </c>
       <c r="I43" t="n">
-        <v>138.7107058999012</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.94961705057716</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>163.1456102552664</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>143.6986535128383</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>143.6986535128387</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>163.145610255266</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>163.145610255266</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.145610255266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>143.6986535128383</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.47340079809914</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>71.66315755721155</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>163.145610255266</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>163.145610255266</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>163.145610255266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>120.048956462999</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>37.15281797242817</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>163.145610255266</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.78000272165374</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05164882042132</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05164882042132</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05164882042132</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05164882042132</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I11" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J11" t="n">
-        <v>13.05164882042132</v>
+        <v>99.87480986388837</v>
       </c>
       <c r="K11" t="n">
-        <v>42.49636115843811</v>
+        <v>129.3195222019052</v>
       </c>
       <c r="L11" t="n">
-        <v>204.0105153111519</v>
+        <v>218.4076991720343</v>
       </c>
       <c r="M11" t="n">
-        <v>347.7832978150427</v>
+        <v>347.7832978150425</v>
       </c>
       <c r="N11" t="n">
-        <v>484.881175124295</v>
+        <v>484.8811751242948</v>
       </c>
       <c r="O11" t="n">
-        <v>598.0697943074362</v>
+        <v>598.0697943074359</v>
       </c>
       <c r="P11" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="Q11" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="R11" t="n">
-        <v>578.6973125091006</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="S11" t="n">
-        <v>578.6973125091006</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="T11" t="n">
-        <v>578.6973125091006</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="U11" t="n">
-        <v>578.6973125091006</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="V11" t="n">
-        <v>578.6973125091006</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="W11" t="n">
-        <v>507.4322859575924</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="X11" t="n">
-        <v>342.638740245202</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.8451945328117</v>
+        <v>322.995349596285</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>351.5285433293827</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="C12" t="n">
-        <v>351.5285433293827</v>
+        <v>251.943730507993</v>
       </c>
       <c r="D12" t="n">
-        <v>351.5285433293827</v>
+        <v>251.943730507993</v>
       </c>
       <c r="E12" t="n">
-        <v>351.5285433293827</v>
+        <v>251.943730507993</v>
       </c>
       <c r="F12" t="n">
-        <v>351.5285433293827</v>
+        <v>251.943730507993</v>
       </c>
       <c r="G12" t="n">
         <v>202.3288408922166</v>
       </c>
       <c r="H12" t="n">
-        <v>85.43867665598854</v>
+        <v>85.43867665598853</v>
       </c>
       <c r="I12" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J12" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K12" t="n">
-        <v>47.11733086470814</v>
+        <v>47.11733086470784</v>
       </c>
       <c r="L12" t="n">
-        <v>149.4363445488151</v>
+        <v>149.4363445488148</v>
       </c>
       <c r="M12" t="n">
-        <v>292.4531866122411</v>
+        <v>292.4531866122409</v>
       </c>
       <c r="N12" t="n">
-        <v>453.9673407649549</v>
+        <v>453.9673407649547</v>
       </c>
       <c r="O12" t="n">
-        <v>577.2353427476944</v>
+        <v>577.2353427476942</v>
       </c>
       <c r="P12" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="Q12" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="R12" t="n">
-        <v>652.5824410210658</v>
+        <v>581.5308219327736</v>
       </c>
       <c r="S12" t="n">
-        <v>652.5824410210658</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="T12" t="n">
-        <v>516.3220890417731</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="U12" t="n">
-        <v>351.5285433293827</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="V12" t="n">
-        <v>351.5285433293827</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="W12" t="n">
-        <v>351.5285433293827</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="X12" t="n">
-        <v>351.5285433293827</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="Y12" t="n">
-        <v>351.5285433293827</v>
+        <v>416.7372762203833</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="C13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="D13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="E13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="F13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K13" t="n">
-        <v>200.450758931431</v>
+        <v>46.67900880994393</v>
       </c>
       <c r="L13" t="n">
-        <v>296.5694481315714</v>
+        <v>142.7976980100844</v>
       </c>
       <c r="M13" t="n">
-        <v>406.509018707793</v>
+        <v>252.7372685863059</v>
       </c>
       <c r="N13" t="n">
-        <v>521.8506082822977</v>
+        <v>368.0788581608106</v>
       </c>
       <c r="O13" t="n">
-        <v>606.3895884773299</v>
+        <v>452.6178383558428</v>
       </c>
       <c r="P13" t="n">
-        <v>652.5824410210658</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="Q13" t="n">
-        <v>597.6078423322892</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="R13" t="n">
-        <v>432.8142966198989</v>
+        <v>334.0171451871884</v>
       </c>
       <c r="S13" t="n">
-        <v>331.6169446542988</v>
+        <v>169.2235994747981</v>
       </c>
       <c r="T13" t="n">
-        <v>166.8233989419084</v>
+        <v>169.2235994747981</v>
       </c>
       <c r="U13" t="n">
-        <v>166.8233989419084</v>
+        <v>169.2235994747981</v>
       </c>
       <c r="V13" t="n">
-        <v>166.8233989419084</v>
+        <v>169.2235994747981</v>
       </c>
       <c r="W13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="X13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.8233989419084</v>
+        <v>13.05164882042131</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>342.638740245202</v>
+        <v>322.995349596285</v>
       </c>
       <c r="C14" t="n">
-        <v>342.638740245202</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="D14" t="n">
-        <v>342.638740245202</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="E14" t="n">
-        <v>342.638740245202</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="F14" t="n">
-        <v>342.638740245202</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="G14" t="n">
-        <v>342.638740245202</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H14" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I14" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J14" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K14" t="n">
         <v>42.49636115843811</v>
@@ -5287,43 +5287,43 @@
         <v>124.0452799600027</v>
       </c>
       <c r="M14" t="n">
-        <v>253.4208786030109</v>
+        <v>285.5594341127165</v>
       </c>
       <c r="N14" t="n">
-        <v>390.5187559122631</v>
+        <v>422.6573114219688</v>
       </c>
       <c r="O14" t="n">
-        <v>503.7073750954043</v>
+        <v>535.84593060511</v>
       </c>
       <c r="P14" t="n">
-        <v>558.2200218090339</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="Q14" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="R14" t="n">
-        <v>578.6973125091006</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="S14" t="n">
-        <v>413.9037667967102</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="T14" t="n">
-        <v>413.9037667967102</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="U14" t="n">
-        <v>413.9037667967102</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="V14" t="n">
-        <v>342.638740245202</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="W14" t="n">
-        <v>342.638740245202</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="X14" t="n">
-        <v>342.638740245202</v>
+        <v>322.995349596285</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.638740245202</v>
+        <v>322.995349596285</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>322.9953495962851</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="C15" t="n">
-        <v>177.8451945328117</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="D15" t="n">
-        <v>177.8451945328117</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="E15" t="n">
-        <v>13.05164882042132</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="F15" t="n">
-        <v>13.05164882042132</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="G15" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H15" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I15" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J15" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K15" t="n">
-        <v>47.11733086470814</v>
+        <v>47.1173308647078</v>
       </c>
       <c r="L15" t="n">
-        <v>149.4363445488151</v>
+        <v>149.4363445488147</v>
       </c>
       <c r="M15" t="n">
-        <v>292.4531866122411</v>
+        <v>292.4531866122408</v>
       </c>
       <c r="N15" t="n">
-        <v>453.9673407649549</v>
+        <v>453.9673407649547</v>
       </c>
       <c r="O15" t="n">
-        <v>577.2353427476944</v>
+        <v>577.2353427476942</v>
       </c>
       <c r="P15" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="Q15" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="R15" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210656</v>
       </c>
       <c r="S15" t="n">
-        <v>652.5824410210658</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="T15" t="n">
-        <v>487.7888953086755</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="U15" t="n">
-        <v>322.9953495962851</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="V15" t="n">
-        <v>322.9953495962851</v>
+        <v>322.995349596285</v>
       </c>
       <c r="W15" t="n">
-        <v>322.9953495962851</v>
+        <v>322.995349596285</v>
       </c>
       <c r="X15" t="n">
-        <v>322.9953495962851</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="Y15" t="n">
-        <v>322.9953495962851</v>
+        <v>158.2018038838947</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="C16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="D16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="E16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="F16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J16" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K16" t="n">
-        <v>46.67900880994394</v>
+        <v>46.67900880994393</v>
       </c>
       <c r="L16" t="n">
         <v>142.7976980100844</v>
@@ -5466,22 +5466,22 @@
         <v>498.8106908995787</v>
       </c>
       <c r="T16" t="n">
-        <v>498.8106908995787</v>
+        <v>334.0171451871884</v>
       </c>
       <c r="U16" t="n">
-        <v>498.8106908995787</v>
+        <v>169.2235994747981</v>
       </c>
       <c r="V16" t="n">
-        <v>342.638740245202</v>
+        <v>169.2235994747981</v>
       </c>
       <c r="W16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="X16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>652.5824410210658</v>
+        <v>249.1102210843197</v>
       </c>
       <c r="C17" t="n">
-        <v>652.5824410210658</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="D17" t="n">
-        <v>652.5824410210658</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="E17" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="F17" t="n">
-        <v>322.9953495962851</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="G17" t="n">
-        <v>158.2018038838947</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05164882042132</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="I17" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J17" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K17" t="n">
-        <v>56.89354501932078</v>
+        <v>42.4963611584381</v>
       </c>
       <c r="L17" t="n">
-        <v>218.4076991720346</v>
+        <v>124.0452799600027</v>
       </c>
       <c r="M17" t="n">
-        <v>347.7832978150427</v>
+        <v>253.4208786030109</v>
       </c>
       <c r="N17" t="n">
-        <v>484.881175124295</v>
+        <v>390.5187559122631</v>
       </c>
       <c r="O17" t="n">
-        <v>598.0697943074362</v>
+        <v>503.7073750954043</v>
       </c>
       <c r="P17" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="Q17" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="R17" t="n">
-        <v>652.5824410210658</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="S17" t="n">
-        <v>652.5824410210658</v>
+        <v>413.90376679671</v>
       </c>
       <c r="T17" t="n">
-        <v>652.5824410210658</v>
+        <v>413.90376679671</v>
       </c>
       <c r="U17" t="n">
-        <v>652.5824410210658</v>
+        <v>413.90376679671</v>
       </c>
       <c r="V17" t="n">
-        <v>652.5824410210658</v>
+        <v>413.90376679671</v>
       </c>
       <c r="W17" t="n">
-        <v>652.5824410210658</v>
+        <v>413.90376679671</v>
       </c>
       <c r="X17" t="n">
-        <v>652.5824410210658</v>
+        <v>413.90376679671</v>
       </c>
       <c r="Y17" t="n">
-        <v>652.5824410210658</v>
+        <v>413.90376679671</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.2018038838947</v>
+        <v>87.15018479560268</v>
       </c>
       <c r="C18" t="n">
-        <v>13.05164882042132</v>
+        <v>87.15018479560268</v>
       </c>
       <c r="D18" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="E18" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="F18" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="G18" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H18" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I18" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J18" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K18" t="n">
-        <v>47.11733086470804</v>
+        <v>47.1173308647077</v>
       </c>
       <c r="L18" t="n">
-        <v>149.436344548815</v>
+        <v>149.4363445488147</v>
       </c>
       <c r="M18" t="n">
-        <v>292.4531866122411</v>
+        <v>292.4531866122408</v>
       </c>
       <c r="N18" t="n">
-        <v>453.967340764955</v>
+        <v>453.9673407649545</v>
       </c>
       <c r="O18" t="n">
-        <v>577.2353427476944</v>
+        <v>577.2353427476939</v>
       </c>
       <c r="P18" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="Q18" t="n">
-        <v>652.5824410210658</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="R18" t="n">
-        <v>652.5824410210658</v>
+        <v>581.5308219327735</v>
       </c>
       <c r="S18" t="n">
-        <v>652.5824410210658</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="T18" t="n">
-        <v>652.5824410210658</v>
+        <v>416.7372762203833</v>
       </c>
       <c r="U18" t="n">
-        <v>487.7888953086755</v>
+        <v>251.943730507993</v>
       </c>
       <c r="V18" t="n">
-        <v>322.9953495962851</v>
+        <v>87.15018479560268</v>
       </c>
       <c r="W18" t="n">
-        <v>158.2018038838947</v>
+        <v>87.15018479560268</v>
       </c>
       <c r="X18" t="n">
-        <v>158.2018038838947</v>
+        <v>87.15018479560268</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.2018038838947</v>
+        <v>87.15018479560268</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05164882042132</v>
+        <v>172.7440917018568</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05164882042132</v>
+        <v>172.7440917018568</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05164882042132</v>
+        <v>172.7440917018568</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05164882042132</v>
+        <v>172.7440917018568</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05164882042132</v>
+        <v>172.7440917018568</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05164882042132</v>
+        <v>172.7440917018568</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J19" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K19" t="n">
-        <v>46.67900880994394</v>
+        <v>46.67900880994392</v>
       </c>
       <c r="L19" t="n">
-        <v>142.7976980100844</v>
+        <v>142.7976980100843</v>
       </c>
       <c r="M19" t="n">
         <v>252.7372685863059</v>
       </c>
       <c r="N19" t="n">
-        <v>368.0788581608106</v>
+        <v>368.0788581608105</v>
       </c>
       <c r="O19" t="n">
         <v>452.6178383558428</v>
@@ -5697,28 +5697,28 @@
         <v>498.8106908995787</v>
       </c>
       <c r="R19" t="n">
-        <v>334.0171451871884</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="S19" t="n">
-        <v>169.223599474798</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05164882042132</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05164882042132</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05164882042132</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05164882042132</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05164882042132</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05164882042132</v>
+        <v>337.5376374142471</v>
       </c>
     </row>
     <row r="20">
@@ -5776,22 +5776,22 @@
         <v>652.5824410210655</v>
       </c>
       <c r="R20" t="n">
-        <v>578.6973125091002</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="S20" t="n">
-        <v>578.6973125091002</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="T20" t="n">
-        <v>413.90376679671</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="U20" t="n">
-        <v>249.1102210843197</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="V20" t="n">
-        <v>177.8451945328116</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="W20" t="n">
-        <v>177.8451945328116</v>
+        <v>322.995349596285</v>
       </c>
       <c r="X20" t="n">
         <v>177.8451945328116</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>322.995349596285</v>
+        <v>443.9350612062057</v>
       </c>
       <c r="C21" t="n">
-        <v>294.7353587690397</v>
+        <v>279.1415154938154</v>
       </c>
       <c r="D21" t="n">
-        <v>294.7353587690397</v>
+        <v>279.1415154938154</v>
       </c>
       <c r="E21" t="n">
-        <v>129.9418130566494</v>
+        <v>279.1415154938154</v>
       </c>
       <c r="F21" t="n">
-        <v>129.9418130566494</v>
+        <v>279.1415154938154</v>
       </c>
       <c r="G21" t="n">
         <v>129.9418130566494</v>
@@ -5834,16 +5834,16 @@
         <v>13.05164882042131</v>
       </c>
       <c r="K21" t="n">
-        <v>47.11733086470784</v>
+        <v>47.1173308647078</v>
       </c>
       <c r="L21" t="n">
-        <v>149.4363445488148</v>
+        <v>149.4363445488147</v>
       </c>
       <c r="M21" t="n">
-        <v>292.4531866122409</v>
+        <v>292.4531866122408</v>
       </c>
       <c r="N21" t="n">
-        <v>453.9673407649546</v>
+        <v>453.9673407649544</v>
       </c>
       <c r="O21" t="n">
         <v>577.2353427476939</v>
@@ -5855,28 +5855,28 @@
         <v>652.5824410210655</v>
       </c>
       <c r="R21" t="n">
-        <v>652.5824410210655</v>
+        <v>608.7286069185959</v>
       </c>
       <c r="S21" t="n">
-        <v>487.7888953086753</v>
+        <v>608.7286069185959</v>
       </c>
       <c r="T21" t="n">
-        <v>487.7888953086753</v>
+        <v>443.9350612062057</v>
       </c>
       <c r="U21" t="n">
-        <v>487.7888953086753</v>
+        <v>443.9350612062057</v>
       </c>
       <c r="V21" t="n">
-        <v>322.995349596285</v>
+        <v>443.9350612062057</v>
       </c>
       <c r="W21" t="n">
-        <v>322.995349596285</v>
+        <v>443.9350612062057</v>
       </c>
       <c r="X21" t="n">
-        <v>322.995349596285</v>
+        <v>443.9350612062057</v>
       </c>
       <c r="Y21" t="n">
-        <v>322.995349596285</v>
+        <v>443.9350612062057</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05164882042131</v>
+        <v>159.7007904878059</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05164882042131</v>
+        <v>159.7007904878059</v>
       </c>
       <c r="D22" t="n">
         <v>13.05164882042131</v>
@@ -5937,25 +5937,25 @@
         <v>498.8106908995787</v>
       </c>
       <c r="S22" t="n">
-        <v>498.8106908995787</v>
+        <v>334.0171451871885</v>
       </c>
       <c r="T22" t="n">
-        <v>498.8106908995787</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="U22" t="n">
-        <v>498.8106908995787</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="V22" t="n">
-        <v>498.8106908995787</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="W22" t="n">
-        <v>334.0171451871885</v>
+        <v>159.7007904878059</v>
       </c>
       <c r="X22" t="n">
-        <v>177.8451945328116</v>
+        <v>159.7007904878059</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05164882042131</v>
+        <v>159.7007904878059</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8431065283336</v>
+        <v>177.3260788709397</v>
       </c>
       <c r="C23" t="n">
-        <v>139.8431065283336</v>
+        <v>177.3260788709397</v>
       </c>
       <c r="D23" t="n">
-        <v>139.8431065283336</v>
+        <v>177.3260788709397</v>
       </c>
       <c r="E23" t="n">
-        <v>139.8431065283336</v>
+        <v>177.3260788709397</v>
       </c>
       <c r="F23" t="n">
-        <v>139.8431065283336</v>
+        <v>177.3260788709397</v>
       </c>
       <c r="G23" t="n">
-        <v>139.8431065283336</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="H23" t="n">
-        <v>139.8431065283336</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="I23" t="n">
         <v>26.10329764084263</v>
       </c>
       <c r="J23" t="n">
-        <v>31.69351359537947</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="K23" t="n">
-        <v>61.13822593339626</v>
+        <v>55.54800997885941</v>
       </c>
       <c r="L23" t="n">
-        <v>142.6871447349609</v>
+        <v>378.5763182842869</v>
       </c>
       <c r="M23" t="n">
-        <v>465.7154530403884</v>
+        <v>507.951916927295</v>
       </c>
       <c r="N23" t="n">
-        <v>602.8133303496406</v>
+        <v>721.1836197569045</v>
       </c>
       <c r="O23" t="n">
-        <v>925.8416386550681</v>
+        <v>1044.211928062332</v>
       </c>
       <c r="P23" t="n">
-        <v>1186.794592634867</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="Q23" t="n">
         <v>1305.164882042131</v>
       </c>
       <c r="R23" t="n">
-        <v>1231.279753530166</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="S23" t="n">
-        <v>1046.071903452156</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="T23" t="n">
-        <v>1046.071903452156</v>
+        <v>1089.020973674944</v>
       </c>
       <c r="U23" t="n">
-        <v>793.5511914977124</v>
+        <v>836.5002617205009</v>
       </c>
       <c r="V23" t="n">
-        <v>469.4301979531143</v>
+        <v>836.5002617205009</v>
       </c>
       <c r="W23" t="n">
-        <v>139.8431065283336</v>
+        <v>836.5002617205009</v>
       </c>
       <c r="X23" t="n">
-        <v>139.8431065283336</v>
+        <v>506.9131702957203</v>
       </c>
       <c r="Y23" t="n">
-        <v>139.8431065283336</v>
+        <v>177.3260788709397</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>739.136084097228</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="C24" t="n">
-        <v>549.7238098301917</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="D24" t="n">
-        <v>388.9436935912235</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="E24" t="n">
-        <v>215.3804897126379</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="F24" t="n">
-        <v>215.3804897126379</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="G24" t="n">
-        <v>215.3804897126379</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="H24" t="n">
-        <v>98.49032547640985</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="I24" t="n">
         <v>26.10329764084263</v>
@@ -6071,16 +6071,16 @@
         <v>71.13745906614697</v>
       </c>
       <c r="K24" t="n">
-        <v>105.2031411104334</v>
+        <v>274.8628799587429</v>
       </c>
       <c r="L24" t="n">
-        <v>428.231449415861</v>
+        <v>597.8911882641703</v>
       </c>
       <c r="M24" t="n">
-        <v>583.7611671579048</v>
+        <v>742.4088563531708</v>
       </c>
       <c r="N24" t="n">
-        <v>906.7894754633323</v>
+        <v>906.7894754633322</v>
       </c>
       <c r="O24" t="n">
         <v>1229.81778376876</v>
@@ -6092,28 +6092,28 @@
         <v>1305.164882042131</v>
       </c>
       <c r="R24" t="n">
-        <v>1305.164882042131</v>
+        <v>1234.113262953839</v>
       </c>
       <c r="S24" t="n">
-        <v>1305.164882042131</v>
+        <v>1060.041701310651</v>
       </c>
       <c r="T24" t="n">
-        <v>1305.164882042131</v>
+        <v>847.1210015754579</v>
       </c>
       <c r="U24" t="n">
-        <v>1201.723796576898</v>
+        <v>847.1210015754579</v>
       </c>
       <c r="V24" t="n">
-        <v>958.6440784805317</v>
+        <v>649.7878380157538</v>
       </c>
       <c r="W24" t="n">
-        <v>958.6440784805317</v>
+        <v>649.7878380157538</v>
       </c>
       <c r="X24" t="n">
-        <v>739.136084097228</v>
+        <v>430.2798436324501</v>
       </c>
       <c r="Y24" t="n">
-        <v>739.136084097228</v>
+        <v>204.6391505677777</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>988.9325809583365</v>
+        <v>292.5277207157896</v>
       </c>
       <c r="C25" t="n">
-        <v>988.9325809583365</v>
+        <v>172.7524393082272</v>
       </c>
       <c r="D25" t="n">
-        <v>988.9325809583365</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="E25" t="n">
-        <v>988.9325809583365</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="F25" t="n">
-        <v>988.9325809583365</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="G25" t="n">
-        <v>819.4058399629738</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="H25" t="n">
-        <v>819.4058399629738</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="I25" t="n">
-        <v>819.4058399629738</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="J25" t="n">
-        <v>819.4058399629738</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="K25" t="n">
-        <v>853.0331999524964</v>
+        <v>59.73065763036524</v>
       </c>
       <c r="L25" t="n">
-        <v>949.1518891526368</v>
+        <v>155.8493468305057</v>
       </c>
       <c r="M25" t="n">
-        <v>1059.091459728858</v>
+        <v>265.7889174067273</v>
       </c>
       <c r="N25" t="n">
-        <v>1174.433049303363</v>
+        <v>381.1305069812319</v>
       </c>
       <c r="O25" t="n">
-        <v>1258.972029498395</v>
+        <v>465.6694871762642</v>
       </c>
       <c r="P25" t="n">
-        <v>1305.164882042131</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="Q25" t="n">
-        <v>1280.456965333835</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="R25" t="n">
-        <v>1280.456965333835</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="S25" t="n">
-        <v>1280.456965333835</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="T25" t="n">
-        <v>1280.456965333835</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="U25" t="n">
-        <v>988.9325809583365</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="V25" t="n">
-        <v>988.9325809583365</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="W25" t="n">
-        <v>988.9325809583365</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="X25" t="n">
-        <v>988.9325809583365</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.9325809583365</v>
+        <v>292.5277207157896</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>645.99069919257</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="C26" t="n">
-        <v>645.99069919257</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="D26" t="n">
-        <v>645.99069919257</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="E26" t="n">
-        <v>645.99069919257</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="F26" t="n">
-        <v>645.99069919257</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="G26" t="n">
-        <v>355.6903890656233</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="H26" t="n">
         <v>26.10329764084263</v>
@@ -6226,22 +6226,22 @@
         <v>26.10329764084263</v>
       </c>
       <c r="J26" t="n">
-        <v>26.10329764084263</v>
+        <v>112.9264586843097</v>
       </c>
       <c r="K26" t="n">
-        <v>55.54800997885942</v>
+        <v>350.3169360949801</v>
       </c>
       <c r="L26" t="n">
-        <v>378.5763182842869</v>
+        <v>673.3452444004075</v>
       </c>
       <c r="M26" t="n">
-        <v>604.5956187176466</v>
+        <v>802.7208430434157</v>
       </c>
       <c r="N26" t="n">
-        <v>927.6239270230742</v>
+        <v>1125.749151348843</v>
       </c>
       <c r="O26" t="n">
-        <v>1250.652235328502</v>
+        <v>1238.937770531984</v>
       </c>
       <c r="P26" t="n">
         <v>1305.164882042131</v>
@@ -6253,25 +6253,25 @@
         <v>1305.164882042131</v>
       </c>
       <c r="S26" t="n">
-        <v>1305.164882042131</v>
+        <v>1119.957031964121</v>
       </c>
       <c r="T26" t="n">
-        <v>1305.164882042131</v>
+        <v>903.8131235969342</v>
       </c>
       <c r="U26" t="n">
-        <v>1305.164882042131</v>
+        <v>903.8131235969342</v>
       </c>
       <c r="V26" t="n">
-        <v>1305.164882042131</v>
+        <v>903.8131235969342</v>
       </c>
       <c r="W26" t="n">
-        <v>975.5777906173507</v>
+        <v>685.2774804904038</v>
       </c>
       <c r="X26" t="n">
-        <v>645.99069919257</v>
+        <v>685.2774804904038</v>
       </c>
       <c r="Y26" t="n">
-        <v>645.99069919257</v>
+        <v>685.2774804904038</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>272.0535293549954</v>
+        <v>681.48034166722</v>
       </c>
       <c r="C27" t="n">
-        <v>272.0535293549954</v>
+        <v>492.0680674001837</v>
       </c>
       <c r="D27" t="n">
-        <v>272.0535293549954</v>
+        <v>348.8662039565942</v>
       </c>
       <c r="E27" t="n">
-        <v>98.49032547640985</v>
+        <v>175.3030000780087</v>
       </c>
       <c r="F27" t="n">
-        <v>98.49032547640985</v>
+        <v>175.3030000780087</v>
       </c>
       <c r="G27" t="n">
-        <v>98.49032547640985</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="H27" t="n">
-        <v>98.49032547640985</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="I27" t="n">
         <v>26.10329764084263</v>
       </c>
       <c r="J27" t="n">
-        <v>71.13745906614697</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="K27" t="n">
-        <v>274.8628799587429</v>
+        <v>60.16897968512911</v>
       </c>
       <c r="L27" t="n">
-        <v>377.1818936428498</v>
+        <v>383.1972879905566</v>
       </c>
       <c r="M27" t="n">
-        <v>520.1987357062759</v>
+        <v>659.2865716705014</v>
       </c>
       <c r="N27" t="n">
-        <v>702.4892401254399</v>
+        <v>982.3148799759289</v>
       </c>
       <c r="O27" t="n">
-        <v>1025.517548430867</v>
+        <v>1105.582881958668</v>
       </c>
       <c r="P27" t="n">
-        <v>1305.164882042131</v>
+        <v>1180.92998023204</v>
       </c>
       <c r="Q27" t="n">
         <v>1305.164882042131</v>
       </c>
       <c r="R27" t="n">
-        <v>1234.113262953839</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="S27" t="n">
-        <v>1060.041701310651</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="T27" t="n">
-        <v>847.1210015754583</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="U27" t="n">
-        <v>607.565595056926</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="V27" t="n">
-        <v>364.4858769605601</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="W27" t="n">
-        <v>364.4858769605601</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="X27" t="n">
-        <v>364.4858769605601</v>
+        <v>1085.656887658828</v>
       </c>
       <c r="Y27" t="n">
-        <v>272.0535293549954</v>
+        <v>860.0161945941552</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.10329764084263</v>
+        <v>237.553122027013</v>
       </c>
       <c r="C28" t="n">
-        <v>26.10329764084263</v>
+        <v>237.553122027013</v>
       </c>
       <c r="D28" t="n">
-        <v>26.10329764084263</v>
+        <v>237.553122027013</v>
       </c>
       <c r="E28" t="n">
-        <v>26.10329764084263</v>
+        <v>237.553122027013</v>
       </c>
       <c r="F28" t="n">
-        <v>26.10329764084263</v>
+        <v>237.553122027013</v>
       </c>
       <c r="G28" t="n">
-        <v>26.10329764084263</v>
+        <v>237.553122027013</v>
       </c>
       <c r="H28" t="n">
-        <v>26.10329764084263</v>
+        <v>166.215121782157</v>
       </c>
       <c r="I28" t="n">
         <v>26.10329764084263</v>
@@ -6405,31 +6405,31 @@
         <v>511.8623397200001</v>
       </c>
       <c r="Q28" t="n">
-        <v>511.8623397200001</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="R28" t="n">
-        <v>345.8592975633691</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="S28" t="n">
-        <v>345.8592975633691</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="T28" t="n">
-        <v>345.8592975633691</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="U28" t="n">
-        <v>345.8592975633691</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="V28" t="n">
-        <v>345.8592975633691</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="W28" t="n">
-        <v>345.8592975633691</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="X28" t="n">
-        <v>205.5143286155579</v>
+        <v>456.8877410312236</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.5143286155579</v>
+        <v>237.553122027013</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>721.9509099075577</v>
+        <v>975.5777906173506</v>
       </c>
       <c r="C29" t="n">
-        <v>721.9509099075577</v>
+        <v>975.5777906173506</v>
       </c>
       <c r="D29" t="n">
-        <v>392.363818482777</v>
+        <v>685.2774804904038</v>
       </c>
       <c r="E29" t="n">
-        <v>62.77672705799637</v>
+        <v>685.2774804904038</v>
       </c>
       <c r="F29" t="n">
-        <v>62.77672705799637</v>
+        <v>685.2774804904038</v>
       </c>
       <c r="G29" t="n">
-        <v>26.10329764084263</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="H29" t="n">
         <v>26.10329764084263</v>
@@ -6466,7 +6466,7 @@
         <v>26.10329764084263</v>
       </c>
       <c r="K29" t="n">
-        <v>55.54800997885942</v>
+        <v>55.54800997885941</v>
       </c>
       <c r="L29" t="n">
         <v>378.5763182842869</v>
@@ -6475,7 +6475,7 @@
         <v>701.6046265897144</v>
       </c>
       <c r="N29" t="n">
-        <v>1024.632934895142</v>
+        <v>927.6239270230741</v>
       </c>
       <c r="O29" t="n">
         <v>1250.652235328502</v>
@@ -6487,28 +6487,28 @@
         <v>1305.164882042131</v>
       </c>
       <c r="R29" t="n">
-        <v>1231.279753530166</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="S29" t="n">
-        <v>1046.071903452156</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="T29" t="n">
-        <v>1046.071903452156</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="U29" t="n">
-        <v>1046.071903452156</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="V29" t="n">
-        <v>721.9509099075577</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="W29" t="n">
-        <v>721.9509099075577</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="X29" t="n">
-        <v>721.9509099075577</v>
+        <v>975.5777906173506</v>
       </c>
       <c r="Y29" t="n">
-        <v>721.9509099075577</v>
+        <v>975.5777906173506</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>786.9642007145465</v>
+        <v>583.2902065186972</v>
       </c>
       <c r="C30" t="n">
-        <v>786.9642007145465</v>
+        <v>583.2902065186972</v>
       </c>
       <c r="D30" t="n">
-        <v>626.1840844755782</v>
+        <v>422.510090279729</v>
       </c>
       <c r="E30" t="n">
-        <v>452.6208805969927</v>
+        <v>375.8082059953938</v>
       </c>
       <c r="F30" t="n">
-        <v>292.1931643142368</v>
+        <v>215.3804897126379</v>
       </c>
       <c r="G30" t="n">
-        <v>142.9934618770707</v>
+        <v>215.3804897126379</v>
       </c>
       <c r="H30" t="n">
-        <v>26.10329764084263</v>
+        <v>98.49032547640985</v>
       </c>
       <c r="I30" t="n">
         <v>26.10329764084263</v>
@@ -6545,49 +6545,49 @@
         <v>71.13745906614697</v>
       </c>
       <c r="K30" t="n">
-        <v>105.2031411104334</v>
+        <v>209.650480585076</v>
       </c>
       <c r="L30" t="n">
-        <v>395.0917789518525</v>
+        <v>311.969494269183</v>
       </c>
       <c r="M30" t="n">
-        <v>538.1086210152785</v>
+        <v>454.986336332609</v>
       </c>
       <c r="N30" t="n">
-        <v>702.4892401254399</v>
+        <v>778.0146446380364</v>
       </c>
       <c r="O30" t="n">
-        <v>1025.517548430867</v>
+        <v>901.2826466207759</v>
       </c>
       <c r="P30" t="n">
-        <v>1305.164882042131</v>
+        <v>1180.92998023204</v>
       </c>
       <c r="Q30" t="n">
         <v>1305.164882042131</v>
       </c>
       <c r="R30" t="n">
-        <v>1234.113262953839</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="S30" t="n">
-        <v>1234.113262953839</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="T30" t="n">
-        <v>1030.043918810912</v>
+        <v>1092.244182306938</v>
       </c>
       <c r="U30" t="n">
-        <v>1030.043918810912</v>
+        <v>852.6887757884059</v>
       </c>
       <c r="V30" t="n">
-        <v>786.9642007145465</v>
+        <v>852.6887757884059</v>
       </c>
       <c r="W30" t="n">
-        <v>786.9642007145465</v>
+        <v>583.2902065186972</v>
       </c>
       <c r="X30" t="n">
-        <v>786.9642007145465</v>
+        <v>583.2902065186972</v>
       </c>
       <c r="Y30" t="n">
-        <v>786.9642007145465</v>
+        <v>583.2902065186972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="C31" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="D31" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="E31" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="F31" t="n">
-        <v>26.10329764084263</v>
+        <v>371.5321556609631</v>
       </c>
       <c r="G31" t="n">
-        <v>26.10329764084263</v>
+        <v>225.5888619050396</v>
       </c>
       <c r="H31" t="n">
-        <v>26.10329764084263</v>
+        <v>225.5888619050396</v>
       </c>
       <c r="I31" t="n">
-        <v>26.10329764084263</v>
+        <v>85.47703776372521</v>
       </c>
       <c r="J31" t="n">
         <v>26.10329764084263</v>
@@ -6654,19 +6654,19 @@
         <v>511.8623397200001</v>
       </c>
       <c r="U31" t="n">
-        <v>220.3379553445019</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="V31" t="n">
-        <v>220.3379553445019</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="W31" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="X31" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200001</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200001</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.8201917057448</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="C32" t="n">
-        <v>247.8201917057448</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="D32" t="n">
-        <v>247.8201917057448</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="E32" t="n">
-        <v>26.10329764084263</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="F32" t="n">
-        <v>26.10329764084263</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="G32" t="n">
-        <v>26.10329764084263</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="H32" t="n">
         <v>26.10329764084263</v>
@@ -6700,52 +6700,52 @@
         <v>26.10329764084263</v>
       </c>
       <c r="J32" t="n">
-        <v>26.10329764084263</v>
+        <v>112.9264586843097</v>
       </c>
       <c r="K32" t="n">
-        <v>55.54800997885942</v>
+        <v>350.3169360949801</v>
       </c>
       <c r="L32" t="n">
-        <v>137.0969287804241</v>
+        <v>673.3452444004075</v>
       </c>
       <c r="M32" t="n">
-        <v>460.1252370858516</v>
+        <v>814.435307839933</v>
       </c>
       <c r="N32" t="n">
-        <v>602.8133303496406</v>
+        <v>1137.46361614536</v>
       </c>
       <c r="O32" t="n">
-        <v>925.8416386550681</v>
+        <v>1250.652235328502</v>
       </c>
       <c r="P32" t="n">
-        <v>1186.794592634867</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="Q32" t="n">
         <v>1305.164882042131</v>
       </c>
       <c r="R32" t="n">
-        <v>1231.279753530166</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="S32" t="n">
-        <v>1046.071903452156</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="T32" t="n">
-        <v>829.9279950849689</v>
+        <v>1089.020973674944</v>
       </c>
       <c r="U32" t="n">
-        <v>577.4072831305255</v>
+        <v>836.5002617205009</v>
       </c>
       <c r="V32" t="n">
-        <v>577.4072831305255</v>
+        <v>512.3792681759029</v>
       </c>
       <c r="W32" t="n">
-        <v>247.8201917057448</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="X32" t="n">
-        <v>247.8201917057448</v>
+        <v>355.6903890656233</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.8201917057448</v>
+        <v>355.6903890656233</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>186.5310139235986</v>
+        <v>976.3764749815828</v>
       </c>
       <c r="C33" t="n">
-        <v>186.5310139235986</v>
+        <v>786.9642007145465</v>
       </c>
       <c r="D33" t="n">
-        <v>186.5310139235986</v>
+        <v>626.1840844755782</v>
       </c>
       <c r="E33" t="n">
-        <v>186.5310139235986</v>
+        <v>452.6208805969927</v>
       </c>
       <c r="F33" t="n">
-        <v>26.10329764084263</v>
+        <v>292.1931643142368</v>
       </c>
       <c r="G33" t="n">
-        <v>26.10329764084263</v>
+        <v>142.9934618770707</v>
       </c>
       <c r="H33" t="n">
         <v>26.10329764084263</v>
@@ -6782,16 +6782,16 @@
         <v>71.13745906614697</v>
       </c>
       <c r="K33" t="n">
-        <v>105.2031411104334</v>
+        <v>274.8628799587429</v>
       </c>
       <c r="L33" t="n">
-        <v>256.192929837273</v>
+        <v>594.8520852745403</v>
       </c>
       <c r="M33" t="n">
-        <v>579.2212381427005</v>
+        <v>737.8689273379663</v>
       </c>
       <c r="N33" t="n">
-        <v>902.2495464481279</v>
+        <v>902.2495464481277</v>
       </c>
       <c r="O33" t="n">
         <v>1025.517548430867</v>
@@ -6806,25 +6806,25 @@
         <v>1305.164882042131</v>
       </c>
       <c r="S33" t="n">
-        <v>1144.157988737649</v>
+        <v>1305.164882042131</v>
       </c>
       <c r="T33" t="n">
-        <v>1144.157988737649</v>
+        <v>1092.244182306938</v>
       </c>
       <c r="U33" t="n">
-        <v>1144.157988737649</v>
+        <v>1092.244182306938</v>
       </c>
       <c r="V33" t="n">
-        <v>901.0782706412832</v>
+        <v>1092.244182306938</v>
       </c>
       <c r="W33" t="n">
-        <v>631.6797013715745</v>
+        <v>976.3764749815828</v>
       </c>
       <c r="X33" t="n">
-        <v>412.1717069882709</v>
+        <v>976.3764749815828</v>
       </c>
       <c r="Y33" t="n">
-        <v>186.5310139235986</v>
+        <v>976.3764749815828</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.11640982839162</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="C34" t="n">
         <v>26.10329764084263</v>
@@ -6897,13 +6897,13 @@
         <v>264.2774758973235</v>
       </c>
       <c r="W34" t="n">
-        <v>264.2774758973235</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="X34" t="n">
-        <v>40.11640982839162</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.11640982839162</v>
+        <v>26.10329764084263</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>249.1102210843197</v>
       </c>
       <c r="D35" t="n">
+        <v>249.1102210843197</v>
+      </c>
+      <c r="E35" t="n">
         <v>177.8451945328116</v>
-      </c>
-      <c r="E35" t="n">
-        <v>13.05164882042131</v>
       </c>
       <c r="F35" t="n">
         <v>13.05164882042131</v>
@@ -6937,22 +6937,22 @@
         <v>13.05164882042131</v>
       </c>
       <c r="J35" t="n">
-        <v>99.87480986388837</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K35" t="n">
-        <v>129.3195222019052</v>
+        <v>42.4963611584381</v>
       </c>
       <c r="L35" t="n">
-        <v>218.4076991720342</v>
+        <v>124.0452799600027</v>
       </c>
       <c r="M35" t="n">
-        <v>347.7832978150424</v>
+        <v>253.4208786030109</v>
       </c>
       <c r="N35" t="n">
-        <v>484.8811751242947</v>
+        <v>390.5187559122631</v>
       </c>
       <c r="O35" t="n">
-        <v>598.0697943074358</v>
+        <v>503.7073750954043</v>
       </c>
       <c r="P35" t="n">
         <v>652.5824410210655</v>
@@ -6967,7 +6967,7 @@
         <v>413.90376679671</v>
       </c>
       <c r="T35" t="n">
-        <v>249.1102210843197</v>
+        <v>413.90376679671</v>
       </c>
       <c r="U35" t="n">
         <v>249.1102210843197</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>620.3090207203982</v>
+        <v>322.995349596285</v>
       </c>
       <c r="C36" t="n">
-        <v>455.5154750080079</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="D36" t="n">
-        <v>294.7353587690397</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="E36" t="n">
-        <v>129.9418130566494</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="F36" t="n">
-        <v>129.9418130566494</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="G36" t="n">
-        <v>129.9418130566494</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H36" t="n">
         <v>13.05164882042131</v>
@@ -7019,7 +7019,7 @@
         <v>13.05164882042131</v>
       </c>
       <c r="K36" t="n">
-        <v>47.11733086470775</v>
+        <v>47.1173308647078</v>
       </c>
       <c r="L36" t="n">
         <v>149.4363445488147</v>
@@ -7028,7 +7028,7 @@
         <v>292.4531866122408</v>
       </c>
       <c r="N36" t="n">
-        <v>453.9673407649546</v>
+        <v>453.9673407649544</v>
       </c>
       <c r="O36" t="n">
         <v>577.2353427476939</v>
@@ -7046,22 +7046,22 @@
         <v>652.5824410210655</v>
       </c>
       <c r="T36" t="n">
-        <v>652.5824410210655</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="U36" t="n">
-        <v>652.5824410210655</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="V36" t="n">
-        <v>620.3090207203982</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="W36" t="n">
-        <v>620.3090207203982</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="X36" t="n">
-        <v>620.3090207203982</v>
+        <v>322.995349596285</v>
       </c>
       <c r="Y36" t="n">
-        <v>620.3090207203982</v>
+        <v>322.995349596285</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.05164882042131</v>
+        <v>461.0642320198078</v>
       </c>
       <c r="C37" t="n">
-        <v>13.05164882042131</v>
+        <v>461.0642320198078</v>
       </c>
       <c r="D37" t="n">
-        <v>13.05164882042131</v>
+        <v>461.0642320198078</v>
       </c>
       <c r="E37" t="n">
-        <v>13.05164882042131</v>
+        <v>317.9570186741259</v>
       </c>
       <c r="F37" t="n">
-        <v>13.05164882042131</v>
+        <v>317.9570186741259</v>
       </c>
       <c r="G37" t="n">
-        <v>13.05164882042131</v>
+        <v>153.1634729617357</v>
       </c>
       <c r="H37" t="n">
-        <v>13.05164882042131</v>
+        <v>153.1634729617357</v>
       </c>
       <c r="I37" t="n">
         <v>13.05164882042131</v>
@@ -7119,28 +7119,28 @@
         <v>498.8106908995787</v>
       </c>
       <c r="R37" t="n">
-        <v>334.0171451871885</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="S37" t="n">
-        <v>177.8451945328116</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="T37" t="n">
-        <v>177.8451945328116</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="U37" t="n">
-        <v>177.8451945328116</v>
+        <v>461.0642320198078</v>
       </c>
       <c r="V37" t="n">
-        <v>177.8451945328116</v>
+        <v>461.0642320198078</v>
       </c>
       <c r="W37" t="n">
-        <v>177.8451945328116</v>
+        <v>461.0642320198078</v>
       </c>
       <c r="X37" t="n">
-        <v>177.8451945328116</v>
+        <v>461.0642320198078</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.05164882042131</v>
+        <v>461.0642320198078</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.05164882042131</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="C38" t="n">
-        <v>13.05164882042131</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="D38" t="n">
-        <v>13.05164882042131</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="E38" t="n">
-        <v>13.05164882042131</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="F38" t="n">
-        <v>13.05164882042131</v>
+        <v>413.90376679671</v>
       </c>
       <c r="G38" t="n">
-        <v>13.05164882042131</v>
+        <v>249.1102210843197</v>
       </c>
       <c r="H38" t="n">
-        <v>13.05164882042131</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="I38" t="n">
         <v>13.05164882042131</v>
@@ -7177,49 +7177,49 @@
         <v>13.05164882042131</v>
       </c>
       <c r="K38" t="n">
-        <v>42.4963611584381</v>
+        <v>136.8587803704696</v>
       </c>
       <c r="L38" t="n">
-        <v>124.0452799600027</v>
+        <v>218.4076991720342</v>
       </c>
       <c r="M38" t="n">
-        <v>253.4208786030109</v>
+        <v>347.7832978150424</v>
       </c>
       <c r="N38" t="n">
-        <v>390.5187559122631</v>
+        <v>484.8811751242947</v>
       </c>
       <c r="O38" t="n">
-        <v>503.7073750954043</v>
+        <v>598.0697943074358</v>
       </c>
       <c r="P38" t="n">
-        <v>558.2200218090339</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="Q38" t="n">
         <v>652.5824410210655</v>
       </c>
       <c r="R38" t="n">
-        <v>652.5824410210655</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="S38" t="n">
-        <v>652.5824410210655</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="T38" t="n">
-        <v>652.5824410210655</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="U38" t="n">
-        <v>507.4322859575922</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="V38" t="n">
-        <v>342.6387402452019</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="W38" t="n">
-        <v>177.8451945328116</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="X38" t="n">
-        <v>13.05164882042131</v>
+        <v>578.6973125091002</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.05164882042131</v>
+        <v>578.6973125091002</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.05164882042131</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="C39" t="n">
-        <v>13.05164882042131</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="D39" t="n">
-        <v>13.05164882042131</v>
+        <v>327.008779069707</v>
       </c>
       <c r="E39" t="n">
-        <v>13.05164882042131</v>
+        <v>162.2513512575873</v>
       </c>
       <c r="F39" t="n">
-        <v>13.05164882042131</v>
+        <v>162.2513512575873</v>
       </c>
       <c r="G39" t="n">
         <v>13.05164882042131</v>
@@ -7277,28 +7277,28 @@
         <v>652.5824410210655</v>
       </c>
       <c r="R39" t="n">
-        <v>581.5308219327735</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="S39" t="n">
-        <v>416.7372762203833</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="T39" t="n">
-        <v>251.943730507993</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="U39" t="n">
-        <v>87.15018479560268</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="V39" t="n">
-        <v>13.05164882042131</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="W39" t="n">
-        <v>13.05164882042131</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="X39" t="n">
-        <v>13.05164882042131</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="Y39" t="n">
-        <v>13.05164882042131</v>
+        <v>487.7888953086753</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.05164882042131</v>
+        <v>355.6444264303001</v>
       </c>
       <c r="C40" t="n">
-        <v>13.05164882042131</v>
+        <v>355.6444264303001</v>
       </c>
       <c r="D40" t="n">
-        <v>13.05164882042131</v>
+        <v>355.6444264303001</v>
       </c>
       <c r="E40" t="n">
-        <v>13.05164882042131</v>
+        <v>212.5372130846183</v>
       </c>
       <c r="F40" t="n">
-        <v>13.05164882042131</v>
+        <v>212.5372130846183</v>
       </c>
       <c r="G40" t="n">
-        <v>13.05164882042131</v>
+        <v>212.5372130846183</v>
       </c>
       <c r="H40" t="n">
-        <v>13.05164882042131</v>
+        <v>212.5372130846183</v>
       </c>
       <c r="I40" t="n">
-        <v>13.05164882042131</v>
+        <v>72.42538894330389</v>
       </c>
       <c r="J40" t="n">
         <v>13.05164882042131</v>
@@ -7359,25 +7359,25 @@
         <v>498.8106908995787</v>
       </c>
       <c r="S40" t="n">
-        <v>342.6387402452019</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="T40" t="n">
-        <v>177.8451945328116</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="U40" t="n">
-        <v>13.05164882042131</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="V40" t="n">
-        <v>13.05164882042131</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="W40" t="n">
-        <v>13.05164882042131</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="X40" t="n">
-        <v>13.05164882042131</v>
+        <v>355.6444264303001</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.05164882042131</v>
+        <v>355.6444264303001</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>652.5824410210655</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="C41" t="n">
-        <v>507.4322859575922</v>
+        <v>342.6387402452019</v>
       </c>
       <c r="D41" t="n">
         <v>342.6387402452019</v>
       </c>
       <c r="E41" t="n">
+        <v>342.6387402452019</v>
+      </c>
+      <c r="F41" t="n">
+        <v>342.6387402452019</v>
+      </c>
+      <c r="G41" t="n">
         <v>177.8451945328116</v>
       </c>
-      <c r="F41" t="n">
-        <v>13.05164882042131</v>
-      </c>
-      <c r="G41" t="n">
-        <v>13.05164882042131</v>
-      </c>
       <c r="H41" t="n">
-        <v>13.05164882042131</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="I41" t="n">
         <v>13.05164882042131</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.05164882042131</v>
+        <v>322.995349596285</v>
       </c>
       <c r="C42" t="n">
-        <v>13.05164882042131</v>
+        <v>322.995349596285</v>
       </c>
       <c r="D42" t="n">
-        <v>13.05164882042131</v>
+        <v>322.995349596285</v>
       </c>
       <c r="E42" t="n">
-        <v>13.05164882042131</v>
+        <v>322.995349596285</v>
       </c>
       <c r="F42" t="n">
-        <v>13.05164882042131</v>
+        <v>162.5676333135291</v>
       </c>
       <c r="G42" t="n">
-        <v>13.05164882042131</v>
+        <v>85.43867665598853</v>
       </c>
       <c r="H42" t="n">
-        <v>13.05164882042131</v>
+        <v>85.43867665598853</v>
       </c>
       <c r="I42" t="n">
         <v>13.05164882042131</v>
@@ -7517,25 +7517,25 @@
         <v>652.5824410210655</v>
       </c>
       <c r="S42" t="n">
-        <v>652.5824410210655</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="T42" t="n">
-        <v>507.4322859575922</v>
+        <v>322.995349596285</v>
       </c>
       <c r="U42" t="n">
-        <v>342.6387402452019</v>
+        <v>322.995349596285</v>
       </c>
       <c r="V42" t="n">
-        <v>177.8451945328116</v>
+        <v>322.995349596285</v>
       </c>
       <c r="W42" t="n">
-        <v>13.05164882042131</v>
+        <v>322.995349596285</v>
       </c>
       <c r="X42" t="n">
-        <v>13.05164882042131</v>
+        <v>322.995349596285</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.05164882042131</v>
+        <v>322.995349596285</v>
       </c>
     </row>
     <row r="43">
@@ -7560,13 +7560,13 @@
         <v>334.0171451871885</v>
       </c>
       <c r="G43" t="n">
-        <v>334.0171451871885</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="H43" t="n">
-        <v>174.324702305753</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I43" t="n">
-        <v>34.21287816443865</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J43" t="n">
         <v>13.05164882042131</v>
@@ -7608,10 +7608,10 @@
         <v>498.8106908995787</v>
       </c>
       <c r="W43" t="n">
-        <v>334.0171451871885</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="X43" t="n">
-        <v>334.0171451871885</v>
+        <v>498.8106908995787</v>
       </c>
       <c r="Y43" t="n">
         <v>334.0171451871885</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>158.2018038838943</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="C44" t="n">
-        <v>158.2018038838943</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="D44" t="n">
-        <v>13.05164882042128</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="E44" t="n">
-        <v>13.05164882042128</v>
+        <v>322.995349596285</v>
       </c>
       <c r="F44" t="n">
-        <v>13.05164882042128</v>
+        <v>177.8451945328116</v>
       </c>
       <c r="G44" t="n">
-        <v>13.05164882042128</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="H44" t="n">
-        <v>13.05164882042128</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="I44" t="n">
-        <v>13.05164882042128</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J44" t="n">
-        <v>13.05164882042128</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K44" t="n">
-        <v>42.49636115843807</v>
+        <v>42.4963611584381</v>
       </c>
       <c r="L44" t="n">
         <v>124.0452799600027</v>
@@ -7660,40 +7660,40 @@
         <v>253.4208786030109</v>
       </c>
       <c r="N44" t="n">
-        <v>390.5187559122631</v>
+        <v>414.9350327557246</v>
       </c>
       <c r="O44" t="n">
-        <v>503.7073750954043</v>
+        <v>528.1236519388658</v>
       </c>
       <c r="P44" t="n">
-        <v>558.2200218090339</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="Q44" t="n">
-        <v>652.582441021064</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="R44" t="n">
-        <v>652.582441021064</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="S44" t="n">
-        <v>652.582441021064</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="T44" t="n">
-        <v>652.582441021064</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="U44" t="n">
-        <v>487.7888953086741</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="V44" t="n">
-        <v>487.7888953086741</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="W44" t="n">
-        <v>322.9953495962842</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="X44" t="n">
-        <v>322.9953495962842</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.2018038838943</v>
+        <v>487.7888953086753</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.05164882042128</v>
+        <v>322.995349596285</v>
       </c>
       <c r="C45" t="n">
-        <v>13.05164882042128</v>
+        <v>322.995349596285</v>
       </c>
       <c r="D45" t="n">
-        <v>13.05164882042128</v>
+        <v>322.995349596285</v>
       </c>
       <c r="E45" t="n">
-        <v>13.05164882042128</v>
+        <v>322.995349596285</v>
       </c>
       <c r="F45" t="n">
-        <v>13.05164882042128</v>
+        <v>322.995349596285</v>
       </c>
       <c r="G45" t="n">
-        <v>13.05164882042128</v>
+        <v>173.795647159119</v>
       </c>
       <c r="H45" t="n">
-        <v>13.05164882042128</v>
+        <v>85.43867665598853</v>
       </c>
       <c r="I45" t="n">
-        <v>13.05164882042128</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="J45" t="n">
-        <v>13.05164882042128</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K45" t="n">
-        <v>47.11733086470677</v>
+        <v>47.11733086470781</v>
       </c>
       <c r="L45" t="n">
-        <v>149.4363445488137</v>
+        <v>149.4363445488146</v>
       </c>
       <c r="M45" t="n">
-        <v>292.4531866122397</v>
+        <v>292.4531866122409</v>
       </c>
       <c r="N45" t="n">
-        <v>453.9673407649531</v>
+        <v>453.9673407649545</v>
       </c>
       <c r="O45" t="n">
-        <v>577.2353427476926</v>
+        <v>577.2353427476939</v>
       </c>
       <c r="P45" t="n">
-        <v>652.582441021064</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="Q45" t="n">
-        <v>652.582441021064</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="R45" t="n">
-        <v>652.582441021064</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="S45" t="n">
-        <v>652.582441021064</v>
+        <v>652.5824410210655</v>
       </c>
       <c r="T45" t="n">
-        <v>487.7888953086741</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="U45" t="n">
-        <v>487.7888953086741</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="V45" t="n">
-        <v>487.7888953086741</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="W45" t="n">
-        <v>322.9953495962842</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="X45" t="n">
-        <v>322.9953495962842</v>
+        <v>487.7888953086753</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.2018038838943</v>
+        <v>487.7888953086753</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>498.8106908995787</v>
+        <v>377.5491187147312</v>
       </c>
       <c r="C46" t="n">
-        <v>498.8106908995787</v>
+        <v>377.5491187147312</v>
       </c>
       <c r="D46" t="n">
-        <v>461.2825919375301</v>
+        <v>377.5491187147312</v>
       </c>
       <c r="E46" t="n">
-        <v>318.1753785918482</v>
+        <v>377.5491187147312</v>
       </c>
       <c r="F46" t="n">
-        <v>177.8451945328112</v>
+        <v>237.2189346556942</v>
       </c>
       <c r="G46" t="n">
-        <v>13.05164882042128</v>
+        <v>72.42538894330389</v>
       </c>
       <c r="H46" t="n">
-        <v>13.05164882042128</v>
+        <v>72.42538894330389</v>
       </c>
       <c r="I46" t="n">
-        <v>13.05164882042128</v>
+        <v>72.42538894330389</v>
       </c>
       <c r="J46" t="n">
-        <v>13.05164882042128</v>
+        <v>13.05164882042131</v>
       </c>
       <c r="K46" t="n">
-        <v>46.67900880994389</v>
+        <v>46.67900880994392</v>
       </c>
       <c r="L46" t="n">
         <v>142.7976980100843</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.87444396133506</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>80.77296500116077</v>
+        <v>7.615412291479345</v>
       </c>
       <c r="M11" t="n">
-        <v>14.54260996048754</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>32.463187383541</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>62.85238757810704</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3297400130402</v>
+        <v>18.01416505139184</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9166,10 +9166,10 @@
         <v>21.87444396133506</v>
       </c>
       <c r="K17" t="n">
-        <v>14.54260996048755</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>80.7729650011608</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>95.315574961648</v>
       </c>
       <c r="Q17" t="n">
         <v>18.01416505139184</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>27.5211267436955</v>
+        <v>21.87444396133506</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>243.9185752564271</v>
       </c>
       <c r="M23" t="n">
-        <v>195.6087976388074</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>76.90285406096692</v>
       </c>
       <c r="O23" t="n">
         <v>211.9592819417034</v>
@@ -9658,7 +9658,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.5801139476182</v>
+        <v>18.01416505139184</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9719,19 +9719,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>222.9386814356774</v>
+        <v>222.9386814356773</v>
       </c>
       <c r="M24" t="n">
-        <v>12.63926836224013</v>
+        <v>1.515985884418654</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2501911063294</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>201.7780871946344</v>
+        <v>201.7780871946343</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>21.87444396133506</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>243.9185752564272</v>
+        <v>243.9185752564271</v>
       </c>
       <c r="M26" t="n">
-        <v>97.61990079833492</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>187.8085161577528</v>
       </c>
       <c r="O26" t="n">
-        <v>211.9592819417034</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>11.83279272375496</v>
       </c>
       <c r="Q26" t="n">
         <v>18.01416505139184</v>
@@ -9953,28 +9953,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>36.21793895583306</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>222.9386814356773</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>134.4166076934533</v>
       </c>
       <c r="N27" t="n">
-        <v>18.09079324141669</v>
+        <v>160.2501911063293</v>
       </c>
       <c r="O27" t="n">
-        <v>201.7780871946344</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.64028264465713</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10117,16 +10117,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>243.9185752564272</v>
+        <v>243.9185752564271</v>
       </c>
       <c r="M29" t="n">
-        <v>195.6087976388075</v>
+        <v>195.6087976388074</v>
       </c>
       <c r="N29" t="n">
-        <v>187.8085161577528</v>
+        <v>89.81961931728029</v>
       </c>
       <c r="O29" t="n">
-        <v>113.970385101231</v>
+        <v>211.9592819417034</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>105.5023631056996</v>
       </c>
       <c r="L30" t="n">
-        <v>189.4642668255678</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>160.2501911063293</v>
       </c>
       <c r="O30" t="n">
-        <v>201.7780871946344</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.64028264465713</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.87444396133506</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>243.9185752564271</v>
       </c>
       <c r="M32" t="n">
-        <v>195.6087976388075</v>
+        <v>11.83279272375486</v>
       </c>
       <c r="N32" t="n">
-        <v>5.646682782360386</v>
+        <v>187.8085161577527</v>
       </c>
       <c r="O32" t="n">
-        <v>211.9592819417034</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>18.01416505139184</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10430,16 +10430,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>49.16239903306322</v>
+        <v>219.868880436051</v>
       </c>
       <c r="M33" t="n">
-        <v>181.8297638808096</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2501911063294</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>21.87444396133506</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.615412291479231</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>95.315574961648</v>
       </c>
       <c r="Q35" t="n">
         <v>18.01416505139184</v>
@@ -10825,7 +10825,7 @@
         <v>21.87444396133506</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>95.31557496164798</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.3297400130399</v>
+        <v>18.01416505139184</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>24.66290590248633</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>70.65266905916164</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.3297400130384</v>
+        <v>18.01416505139184</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -23269,7 +23269,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>259.5005961271748</v>
       </c>
       <c r="G11" t="n">
         <v>416.9002147407629</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S11" t="n">
         <v>183.3557715772301</v>
@@ -23320,13 +23320,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>267.3440875397738</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>196.6371040394397</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.1399571631834</v>
+        <v>219.1399571631835</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>24.37254126909951</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -23351,7 +23351,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>98.58896469317577</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>70.34110289740907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>172.3308460267565</v>
+        <v>9.185235771490085</v>
       </c>
       <c r="T12" t="n">
-        <v>75.89374427834119</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U12" t="n">
-        <v>74.01424219808052</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>54.4248527018888</v>
       </c>
       <c r="R13" t="n">
-        <v>1.197401479798259</v>
+        <v>1.197401479798316</v>
       </c>
       <c r="S13" t="n">
-        <v>120.1031143554909</v>
+        <v>57.14288254616861</v>
       </c>
       <c r="T13" t="n">
-        <v>56.9016606439713</v>
+        <v>220.0472708992378</v>
       </c>
       <c r="U13" t="n">
         <v>288.6091405317433</v>
@@ -23478,7 +23478,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>135.7004759415023</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23497,10 +23497,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>206.5068438683402</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>174.6265493869609</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
@@ -23512,10 +23512,10 @@
         <v>416.9002147407629</v>
       </c>
       <c r="H14" t="n">
-        <v>164.0286737133983</v>
+        <v>327.1742839686647</v>
       </c>
       <c r="I14" t="n">
-        <v>3.151024610965038</v>
+        <v>166.2966348662315</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S14" t="n">
-        <v>20.21016132196362</v>
+        <v>20.21016132196368</v>
       </c>
       <c r="T14" t="n">
         <v>213.9824692835151</v>
@@ -23554,13 +23554,13 @@
         <v>249.9955048348989</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3274073231589</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>196.6371040394397</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23576,19 +23576,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>43.81949801152723</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>8.681961584533212</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.7077054127944</v>
+        <v>4.009051899955722</v>
       </c>
       <c r="H15" t="n">
         <v>115.7212625938658</v>
@@ -23624,22 +23624,22 @@
         <v>70.34110289740907</v>
       </c>
       <c r="S15" t="n">
-        <v>172.3308460267565</v>
+        <v>9.185235771490085</v>
       </c>
       <c r="T15" t="n">
-        <v>47.64588248257454</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U15" t="n">
-        <v>74.01424219808052</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>77.50331066013584</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>54.1673041842042</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -23667,7 +23667,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>4.685863330142638</v>
+        <v>167.8314735854091</v>
       </c>
       <c r="H16" t="n">
         <v>158.0955184526211</v>
@@ -23706,16 +23706,16 @@
         <v>220.288492801435</v>
       </c>
       <c r="T16" t="n">
-        <v>220.0472708992378</v>
+        <v>56.90166064397135</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6091405317433</v>
+        <v>125.4635302764769</v>
       </c>
       <c r="V16" t="n">
-        <v>90.49878403661697</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>127.1650968340689</v>
+        <v>135.7004759415023</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>210.9416301225669</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>279.6531210951858</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>208.3333018063697</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>240.053639384747</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>253.7546044854965</v>
+        <v>416.9002147407629</v>
       </c>
       <c r="H17" t="n">
-        <v>183.475630455826</v>
+        <v>327.1742839686647</v>
       </c>
       <c r="I17" t="n">
-        <v>166.2966348662315</v>
+        <v>3.151024610965123</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>183.3557715772301</v>
+        <v>20.21016132196371</v>
       </c>
       <c r="T17" t="n">
         <v>213.9824692835151</v>
@@ -23813,10 +23813,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>43.81949801152723</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>85.81476446114898</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>70.34110289740907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>172.3308460267565</v>
+        <v>9.185235771490113</v>
       </c>
       <c r="T18" t="n">
         <v>210.791492737841</v>
       </c>
       <c r="U18" t="n">
-        <v>74.01424219808052</v>
+        <v>74.01424219808061</v>
       </c>
       <c r="V18" t="n">
-        <v>77.50331066013578</v>
+        <v>77.50331066013587</v>
       </c>
       <c r="W18" t="n">
-        <v>103.5589733217451</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>14.47131040970172</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23907,7 +23907,7 @@
         <v>167.8314735854091</v>
       </c>
       <c r="H19" t="n">
-        <v>158.0955184526211</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>138.7107058999012</v>
@@ -23937,13 +23937,13 @@
         <v>54.4248527018888</v>
       </c>
       <c r="R19" t="n">
-        <v>1.197401479798259</v>
+        <v>164.3430117350647</v>
       </c>
       <c r="S19" t="n">
-        <v>57.14288254616855</v>
+        <v>220.288492801435</v>
       </c>
       <c r="T19" t="n">
-        <v>65.43703975140485</v>
+        <v>220.0472708992378</v>
       </c>
       <c r="U19" t="n">
         <v>288.6091405317433</v>
@@ -23958,7 +23958,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.1412728141684</v>
+        <v>57.48094986369009</v>
       </c>
     </row>
     <row r="20">
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S20" t="n">
-        <v>183.3557715772301</v>
+        <v>20.21016132196371</v>
       </c>
       <c r="T20" t="n">
-        <v>50.83685902824868</v>
+        <v>213.9824692835151</v>
       </c>
       <c r="U20" t="n">
-        <v>86.84989457963252</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V20" t="n">
-        <v>250.327407323159</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>174.7508535705005</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>216.0840607818675</v>
       </c>
       <c r="Y20" t="n">
         <v>219.1399571631835</v>
@@ -24050,19 +24050,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>159.5407606053931</v>
+        <v>24.37254126909954</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>8.681961584533298</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>70.34110289740907</v>
+        <v>26.92580713596418</v>
       </c>
       <c r="S21" t="n">
-        <v>9.185235771490113</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T21" t="n">
-        <v>210.791492737841</v>
+        <v>47.64588248257462</v>
       </c>
       <c r="U21" t="n">
         <v>237.159852453347</v>
       </c>
       <c r="V21" t="n">
-        <v>77.50331066013587</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -24132,7 +24132,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
@@ -24177,10 +24177,10 @@
         <v>164.3430117350647</v>
       </c>
       <c r="S22" t="n">
-        <v>220.288492801435</v>
+        <v>57.14288254616864</v>
       </c>
       <c r="T22" t="n">
-        <v>220.0472708992378</v>
+        <v>56.90166064397138</v>
       </c>
       <c r="U22" t="n">
         <v>288.6091405317433</v>
@@ -24189,13 +24189,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>127.1650968340689</v>
+        <v>280.883126192213</v>
       </c>
       <c r="X22" t="n">
-        <v>67.30922426040942</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.99566255890204</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>416.9002147407629</v>
+        <v>267.1896613229669</v>
       </c>
       <c r="H23" t="n">
         <v>327.1742839686647</v>
       </c>
       <c r="I23" t="n">
-        <v>53.69422406761541</v>
+        <v>166.2966348662315</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9824692835151</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>11.60524331523402</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>33.49149378417331</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>55.99434690791708</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -24302,10 +24302,10 @@
         <v>147.7077054127944</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>115.7212625938658</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>71.66315755721155</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>70.34110289740907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>172.3308460267565</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>210.791492737841</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>134.7531778427656</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>45.28908899129522</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,10 +24366,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>47.87965237848555</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
@@ -24378,7 +24378,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.8314735854091</v>
       </c>
       <c r="H25" t="n">
         <v>158.0955184526211</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.96401516067519</v>
+        <v>54.4248527018888</v>
       </c>
       <c r="R25" t="n">
         <v>164.3430117350647</v>
@@ -24420,7 +24420,7 @@
         <v>220.0472708992378</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>47.79601986730052</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24457,10 +24457,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>129.5029077150857</v>
+        <v>90.60899423023011</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8830634581318577</v>
+        <v>327.1742839686647</v>
       </c>
       <c r="I26" t="n">
         <v>166.2966348662315</v>
@@ -24493,10 +24493,10 @@
         <v>73.14627722684563</v>
       </c>
       <c r="S26" t="n">
-        <v>183.3557715772301</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9824692835151</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>249.9955048348989</v>
@@ -24505,10 +24505,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>11.60524331523402</v>
+        <v>121.5461771503018</v>
       </c>
       <c r="X26" t="n">
-        <v>33.49149378417326</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>17.40247026742489</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>115.7212625938658</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>71.66315755721155</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>70.34110289740907</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>131.8762620045165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -24618,10 +24618,10 @@
         <v>167.8314735854091</v>
       </c>
       <c r="H28" t="n">
-        <v>158.0955184526211</v>
+        <v>87.47089821021359</v>
       </c>
       <c r="I28" t="n">
-        <v>138.7107058999012</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>58.78000272165374</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.4248527018888</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>164.3430117350647</v>
       </c>
       <c r="S28" t="n">
         <v>220.288492801435</v>
@@ -24666,10 +24666,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>82.97793614990948</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>11.48093913169441</v>
+        <v>50.37485261654996</v>
       </c>
       <c r="E29" t="n">
-        <v>45.18769155110328</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>380.5935196177807</v>
+        <v>90.60899423023011</v>
       </c>
       <c r="H29" t="n">
-        <v>327.1742839686647</v>
+        <v>0.8830634581319146</v>
       </c>
       <c r="I29" t="n">
         <v>166.2966348662315</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T29" t="n">
         <v>213.9824692835151</v>
@@ -24739,13 +24739,13 @@
         <v>249.9955048348989</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>33.49149378417331</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>125.5927063983079</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>70.34110289740907</v>
       </c>
       <c r="S30" t="n">
         <v>172.3308460267565</v>
       </c>
       <c r="T30" t="n">
-        <v>8.762842036343187</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.159852453347</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -24849,19 +24849,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8314735854091</v>
+        <v>23.34761276704484</v>
       </c>
       <c r="H31" t="n">
         <v>158.0955184526211</v>
       </c>
       <c r="I31" t="n">
-        <v>138.7107058999012</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.78000272165374</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>220.0472708992378</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>98.01839596271267</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24925,7 +24925,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>151.979186937383</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
@@ -24934,7 +24934,7 @@
         <v>416.9002147407629</v>
       </c>
       <c r="H32" t="n">
-        <v>327.1742839686647</v>
+        <v>0.8830634581319146</v>
       </c>
       <c r="I32" t="n">
         <v>166.2966348662315</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.14627722684563</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>11.60524331523402</v>
+        <v>182.7744735065901</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
@@ -24998,22 +24998,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>115.7212625938658</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>71.66315755721155</v>
@@ -25046,25 +25046,25 @@
         <v>70.34110289740907</v>
       </c>
       <c r="S33" t="n">
-        <v>12.9340216553191</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T33" t="n">
-        <v>210.791492737841</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>237.159852453347</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>151.9955533249097</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>152.5841999062988</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>54.51827061541931</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25159,13 +25159,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>267.2197833562342</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>208.3333018063698</v>
+        <v>300.9265357756431</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>240.0536393847471</v>
       </c>
       <c r="G35" t="n">
         <v>416.9002147407629</v>
@@ -25207,10 +25207,10 @@
         <v>20.21016132196371</v>
       </c>
       <c r="T35" t="n">
-        <v>50.83685902824868</v>
+        <v>213.9824692835151</v>
       </c>
       <c r="U35" t="n">
-        <v>249.9955048348989</v>
+        <v>86.84989457963252</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25238,19 +25238,19 @@
         <v>24.37254126909954</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>8.681961584533298</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>15.12478560708968</v>
       </c>
       <c r="G36" t="n">
         <v>147.7077054127944</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>115.7212625938658</v>
       </c>
       <c r="I36" t="n">
         <v>71.66315755721155</v>
@@ -25286,19 +25286,19 @@
         <v>172.3308460267565</v>
       </c>
       <c r="T36" t="n">
-        <v>210.791492737841</v>
+        <v>47.64588248257462</v>
       </c>
       <c r="U36" t="n">
         <v>237.159852453347</v>
       </c>
       <c r="V36" t="n">
-        <v>208.6982348177416</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>54.16730418420423</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -25320,19 +25320,19 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8314735854091</v>
+        <v>4.685863330142723</v>
       </c>
       <c r="H37" t="n">
         <v>158.0955184526211</v>
       </c>
       <c r="I37" t="n">
-        <v>138.7107058999012</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>58.78000272165374</v>
@@ -25359,16 +25359,16 @@
         <v>54.4248527018888</v>
       </c>
       <c r="R37" t="n">
-        <v>1.197401479798344</v>
+        <v>164.3430117350647</v>
       </c>
       <c r="S37" t="n">
-        <v>65.67826165360191</v>
+        <v>220.288492801435</v>
       </c>
       <c r="T37" t="n">
         <v>220.0472708992378</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6091405317433</v>
+        <v>251.24014624077</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25380,7 +25380,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.99566255890204</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>240.0536393847471</v>
       </c>
       <c r="G38" t="n">
-        <v>416.9002147407629</v>
+        <v>253.7546044854965</v>
       </c>
       <c r="H38" t="n">
-        <v>327.1742839686647</v>
+        <v>256.6219076826717</v>
       </c>
       <c r="I38" t="n">
-        <v>166.2966348662315</v>
+        <v>3.151024610965123</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.14627722684563</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>183.3557715772301</v>
@@ -25447,16 +25447,16 @@
         <v>213.9824692835151</v>
       </c>
       <c r="U38" t="n">
-        <v>106.2968513220603</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V38" t="n">
-        <v>157.7341733538856</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>174.7508535705005</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>196.6371040394397</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25475,16 +25475,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>8.717718305801242</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>115.7212625938658</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>70.34110289740907</v>
       </c>
       <c r="S39" t="n">
-        <v>9.185235771490113</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T39" t="n">
-        <v>47.64588248257462</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U39" t="n">
         <v>74.01424219808061</v>
       </c>
       <c r="V39" t="n">
-        <v>167.2913702999727</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -25557,7 +25557,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -25569,10 +25569,10 @@
         <v>158.0955184526211</v>
       </c>
       <c r="I40" t="n">
-        <v>138.7107058999012</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.78000272165374</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>164.3430117350647</v>
       </c>
       <c r="S40" t="n">
-        <v>65.67826165360196</v>
+        <v>220.288492801435</v>
       </c>
       <c r="T40" t="n">
-        <v>56.90166064397138</v>
+        <v>220.0472708992378</v>
       </c>
       <c r="U40" t="n">
-        <v>125.4635302764769</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25614,7 +25614,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>80.18485358365669</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>210.9416301225669</v>
       </c>
       <c r="C41" t="n">
         <v>206.5068438683402</v>
       </c>
       <c r="D41" t="n">
-        <v>174.6265493869609</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>208.3333018063698</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>240.0536393847471</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>416.9002147407629</v>
+        <v>253.7546044854965</v>
       </c>
       <c r="H41" t="n">
         <v>327.1742839686647</v>
       </c>
       <c r="I41" t="n">
-        <v>166.2966348662315</v>
+        <v>3.151024610965123</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.7077054127944</v>
+        <v>71.3500383218292</v>
       </c>
       <c r="H42" t="n">
         <v>115.7212625938658</v>
       </c>
       <c r="I42" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>70.34110289740907</v>
       </c>
       <c r="S42" t="n">
-        <v>172.3308460267565</v>
+        <v>9.185235771490113</v>
       </c>
       <c r="T42" t="n">
-        <v>67.09283922500239</v>
+        <v>47.64588248257462</v>
       </c>
       <c r="U42" t="n">
-        <v>74.01424219808061</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V42" t="n">
-        <v>77.50331066013587</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>103.5589733217452</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -25800,16 +25800,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8314735854091</v>
+        <v>4.685863330142723</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.485287304787988</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>138.7107058999012</v>
       </c>
       <c r="J43" t="n">
-        <v>37.83038567107658</v>
+        <v>58.78000272165374</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>127.1650968340689</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>53.99566255890204</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>194.073506129389</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>208.3333018063698</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>259.5005961271748</v>
       </c>
       <c r="G44" t="n">
-        <v>416.9002147407629</v>
+        <v>253.7546044854965</v>
       </c>
       <c r="H44" t="n">
         <v>327.1742839686647</v>
@@ -25915,25 +25915,25 @@
         <v>73.14627722684563</v>
       </c>
       <c r="S44" t="n">
-        <v>183.3557715772301</v>
+        <v>20.21016132196371</v>
       </c>
       <c r="T44" t="n">
         <v>213.9824692835151</v>
       </c>
       <c r="U44" t="n">
-        <v>86.84989457963289</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>174.7508535705009</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.1399571631839</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33.05184088482747</v>
+        <v>13.60488414239936</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>115.7212625938658</v>
+        <v>28.24786179576668</v>
       </c>
       <c r="I45" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>172.3308460267565</v>
       </c>
       <c r="T45" t="n">
-        <v>47.64588248257499</v>
+        <v>47.64588248257462</v>
       </c>
       <c r="U45" t="n">
         <v>237.159852453347</v>
@@ -26006,13 +26006,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>103.5589733217456</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>60.23867587875961</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>57.56796420196905</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>108.0298322782825</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.685863330143093</v>
+        <v>4.685863330142723</v>
       </c>
       <c r="H46" t="n">
         <v>158.0955184526211</v>
@@ -26046,7 +26046,7 @@
         <v>138.7107058999012</v>
       </c>
       <c r="J46" t="n">
-        <v>58.78000272165374</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>393269.7843820562</v>
+        <v>393269.7843820563</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>393269.7843820562</v>
+        <v>393269.7843820563</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>503990.8950253106</v>
+        <v>503990.8950253108</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>503990.8950253108</v>
+        <v>503990.8950253107</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>503990.8950253106</v>
+        <v>503990.8950253107</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>503990.8950253106</v>
+        <v>503990.8950253107</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>393269.7843820563</v>
+        <v>393269.7843820562</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>393269.784382056</v>
+        <v>393269.7843820562</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683497.296261756</v>
+        <v>683497.2962617562</v>
       </c>
       <c r="C2" t="n">
         <v>683497.296261756</v>
       </c>
       <c r="D2" t="n">
-        <v>683497.2962617559</v>
+        <v>683497.2962617561</v>
       </c>
       <c r="E2" t="n">
         <v>300624.4442538386</v>
@@ -26331,31 +26331,31 @@
         <v>300624.4442538386</v>
       </c>
       <c r="H2" t="n">
-        <v>300624.4442538387</v>
+        <v>300624.4442538386</v>
       </c>
       <c r="I2" t="n">
-        <v>360487.4042923837</v>
+        <v>360487.4042923838</v>
       </c>
       <c r="J2" t="n">
         <v>360487.4042923836</v>
       </c>
       <c r="K2" t="n">
+        <v>360487.4042923836</v>
+      </c>
+      <c r="L2" t="n">
         <v>360487.4042923837</v>
       </c>
-      <c r="L2" t="n">
-        <v>360487.4042923838</v>
-      </c>
       <c r="M2" t="n">
-        <v>300624.4442538386</v>
+        <v>300624.4442538385</v>
       </c>
       <c r="N2" t="n">
         <v>300624.4442538386</v>
       </c>
       <c r="O2" t="n">
+        <v>300624.4442538384</v>
+      </c>
+      <c r="P2" t="n">
         <v>300624.4442538385</v>
-      </c>
-      <c r="P2" t="n">
-        <v>300624.4442538383</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43383.84382469071</v>
+        <v>43383.8438246907</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>15200.71864841029</v>
       </c>
       <c r="F4" t="n">
-        <v>15200.7186484103</v>
+        <v>15200.71864841029</v>
       </c>
       <c r="G4" t="n">
-        <v>15200.71864841029</v>
+        <v>15200.71864841028</v>
       </c>
       <c r="H4" t="n">
         <v>15200.71864841029</v>
       </c>
       <c r="I4" t="n">
-        <v>50728.57973467292</v>
+        <v>50728.5797346729</v>
       </c>
       <c r="J4" t="n">
-        <v>50728.5797346729</v>
+        <v>50728.57973467291</v>
       </c>
       <c r="K4" t="n">
-        <v>50728.57973467292</v>
+        <v>50728.57973467291</v>
       </c>
       <c r="L4" t="n">
-        <v>50728.57973467292</v>
+        <v>50728.57973467291</v>
       </c>
       <c r="M4" t="n">
         <v>15200.71864841028</v>
       </c>
       <c r="N4" t="n">
-        <v>15200.71864841029</v>
+        <v>15200.71864841028</v>
       </c>
       <c r="O4" t="n">
         <v>15200.71864841028</v>
       </c>
       <c r="P4" t="n">
-        <v>15200.71864841023</v>
+        <v>15200.71864841028</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>22633.85222410363</v>
       </c>
       <c r="G5" t="n">
-        <v>22633.85222410363</v>
+        <v>22633.85222410362</v>
       </c>
       <c r="H5" t="n">
         <v>22633.85222410362</v>
@@ -26511,7 +26511,7 @@
         <v>22633.85222410362</v>
       </c>
       <c r="P5" t="n">
-        <v>22633.8522241036</v>
+        <v>22633.85222410362</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172039.0327314807</v>
+        <v>171994.368889429</v>
       </c>
       <c r="C6" t="n">
-        <v>172039.0327314807</v>
+        <v>171994.3688894287</v>
       </c>
       <c r="D6" t="n">
-        <v>172039.0327314805</v>
+        <v>171994.3688894288</v>
       </c>
       <c r="E6" t="n">
-        <v>-254497.3706408708</v>
+        <v>-266892.7716444685</v>
       </c>
       <c r="F6" t="n">
-        <v>262789.8733813246</v>
+        <v>250394.472377727</v>
       </c>
       <c r="G6" t="n">
-        <v>262789.8733813246</v>
+        <v>250394.472377727</v>
       </c>
       <c r="H6" t="n">
-        <v>262789.8733813248</v>
+        <v>250394.472377727</v>
       </c>
       <c r="I6" t="n">
-        <v>233821.8754053962</v>
+        <v>223357.5376288485</v>
       </c>
       <c r="J6" t="n">
-        <v>277205.7192300869</v>
+        <v>266741.3814535391</v>
       </c>
       <c r="K6" t="n">
-        <v>277205.719230087</v>
+        <v>266741.3814535391</v>
       </c>
       <c r="L6" t="n">
-        <v>277205.719230087</v>
+        <v>266741.3814535392</v>
       </c>
       <c r="M6" t="n">
-        <v>262789.8733813246</v>
+        <v>250394.472377727</v>
       </c>
       <c r="N6" t="n">
-        <v>262789.8733813246</v>
+        <v>250394.472377727</v>
       </c>
       <c r="O6" t="n">
-        <v>262789.8733813246</v>
+        <v>250394.4723777269</v>
       </c>
       <c r="P6" t="n">
-        <v>262789.8733813245</v>
+        <v>250394.472377727</v>
       </c>
     </row>
   </sheetData>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="F4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="G4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="H4" t="n">
         <v>163.1456102552664</v>
       </c>
       <c r="I4" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="J4" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="K4" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="L4" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="M4" t="n">
         <v>163.1456102552664</v>
@@ -26831,7 +26831,7 @@
         <v>163.1456102552664</v>
       </c>
       <c r="P4" t="n">
-        <v>163.145610255266</v>
+        <v>163.1456102552664</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>118.5239655775003</v>
       </c>
       <c r="K12" t="n">
-        <v>202.5763353914319</v>
+        <v>202.5763353914316</v>
       </c>
       <c r="L12" t="n">
         <v>272.388882406302</v>
@@ -32080,7 +32080,7 @@
         <v>118.5239655775003</v>
       </c>
       <c r="K15" t="n">
-        <v>202.5763353914319</v>
+        <v>202.5763353914316</v>
       </c>
       <c r="L15" t="n">
         <v>272.388882406302</v>
@@ -32089,7 +32089,7 @@
         <v>317.8649780145856</v>
       </c>
       <c r="N15" t="n">
-        <v>323.3824989969331</v>
+        <v>323.3824989969332</v>
       </c>
       <c r="O15" t="n">
         <v>298.4805515381207</v>
@@ -32326,7 +32326,7 @@
         <v>317.8649780145856</v>
       </c>
       <c r="N18" t="n">
-        <v>323.3824989969331</v>
+        <v>323.382498996933</v>
       </c>
       <c r="O18" t="n">
         <v>298.4805515381207</v>
@@ -34450,7 +34450,7 @@
         <v>118.5239655775003</v>
       </c>
       <c r="K45" t="n">
-        <v>202.5763353914306</v>
+        <v>202.5763353914316</v>
       </c>
       <c r="L45" t="n">
         <v>272.388882406302</v>
@@ -34459,7 +34459,7 @@
         <v>317.8649780145856</v>
       </c>
       <c r="N45" t="n">
-        <v>323.3824989969327</v>
+        <v>323.382498996933</v>
       </c>
       <c r="O45" t="n">
         <v>298.4805515381207</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>87.70016267016875</v>
       </c>
       <c r="K11" t="n">
         <v>29.74213367476443</v>
       </c>
       <c r="L11" t="n">
-        <v>163.1456102552665</v>
+        <v>89.98805754558504</v>
       </c>
       <c r="M11" t="n">
-        <v>145.2250328322129</v>
+        <v>130.6824228717254</v>
       </c>
       <c r="N11" t="n">
         <v>138.48270435278</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.40977984271396</v>
+        <v>34.40977984271362</v>
       </c>
       <c r="L12" t="n">
         <v>103.3525390748555</v>
@@ -35500,7 +35500,7 @@
         <v>144.4614566297233</v>
       </c>
       <c r="N12" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="O12" t="n">
         <v>124.5131333158985</v>
@@ -35655,7 +35655,7 @@
         <v>82.37264525410569</v>
       </c>
       <c r="M14" t="n">
-        <v>130.6824228717254</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="N14" t="n">
         <v>138.48270435278</v>
@@ -35664,10 +35664,10 @@
         <v>114.3319385688295</v>
       </c>
       <c r="P14" t="n">
-        <v>55.06327950871685</v>
+        <v>117.9156670868239</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.31557496164839</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.40977984271396</v>
+        <v>34.40977984271362</v>
       </c>
       <c r="L15" t="n">
         <v>103.3525390748555</v>
@@ -35737,7 +35737,7 @@
         <v>144.4614566297233</v>
       </c>
       <c r="N15" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552666</v>
       </c>
       <c r="O15" t="n">
         <v>124.5131333158985</v>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.28474363525198</v>
+        <v>29.74213367476443</v>
       </c>
       <c r="L17" t="n">
-        <v>163.1456102552665</v>
+        <v>82.37264525410569</v>
       </c>
       <c r="M17" t="n">
         <v>130.6824228717254</v>
@@ -35901,7 +35901,7 @@
         <v>114.3319385688295</v>
       </c>
       <c r="P17" t="n">
-        <v>55.06327950871685</v>
+        <v>150.3788544703648</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>144.4614566297233</v>
       </c>
       <c r="N18" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="O18" t="n">
         <v>124.5131333158985</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.646682782360442</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>29.74213367476443</v>
       </c>
       <c r="L23" t="n">
-        <v>82.37264525410569</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="M23" t="n">
-        <v>326.2912205105329</v>
+        <v>130.6824228717254</v>
       </c>
       <c r="N23" t="n">
-        <v>138.48270435278</v>
+        <v>215.385558413747</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="P23" t="n">
         <v>263.5888424038376</v>
       </c>
       <c r="Q23" t="n">
-        <v>119.5659488962264</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>45.48905194475186</v>
       </c>
       <c r="K24" t="n">
-        <v>34.40977984271362</v>
+        <v>205.7832534268646</v>
       </c>
       <c r="L24" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="M24" t="n">
-        <v>157.1007249919634</v>
+        <v>145.9774425141419</v>
       </c>
       <c r="N24" t="n">
-        <v>326.2912205105329</v>
+        <v>166.0410294042035</v>
       </c>
       <c r="O24" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="P24" t="n">
         <v>76.10818007411262</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>87.70016267016875</v>
       </c>
       <c r="K26" t="n">
-        <v>29.74213367476443</v>
+        <v>239.7883610208792</v>
       </c>
       <c r="L26" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="M26" t="n">
-        <v>228.3023236700603</v>
+        <v>130.6824228717254</v>
       </c>
       <c r="N26" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2912205105329</v>
+        <v>114.3319385688295</v>
       </c>
       <c r="P26" t="n">
-        <v>55.06327950871685</v>
+        <v>66.89607223247181</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>45.48905194475186</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>205.7832534268646</v>
+        <v>34.40977984271362</v>
       </c>
       <c r="L27" t="n">
-        <v>103.3525390748555</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="M27" t="n">
-        <v>144.4614566297233</v>
+        <v>278.8780643231766</v>
       </c>
       <c r="N27" t="n">
-        <v>184.1318226456202</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="O27" t="n">
-        <v>326.2912205105329</v>
+        <v>124.5131333158985</v>
       </c>
       <c r="P27" t="n">
-        <v>282.4720541527919</v>
+        <v>76.10818007411262</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>125.4897998081731</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>29.74213367476443</v>
       </c>
       <c r="L29" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="M29" t="n">
-        <v>326.2912205105329</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="N29" t="n">
-        <v>326.2912205105329</v>
+        <v>228.3023236700603</v>
       </c>
       <c r="O29" t="n">
-        <v>228.3023236700604</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="P29" t="n">
         <v>55.06327950871685</v>
@@ -36913,25 +36913,25 @@
         <v>45.48905194475186</v>
       </c>
       <c r="K30" t="n">
-        <v>34.40977984271362</v>
+        <v>139.9121429484132</v>
       </c>
       <c r="L30" t="n">
-        <v>292.8168059004233</v>
+        <v>103.3525390748555</v>
       </c>
       <c r="M30" t="n">
         <v>144.4614566297233</v>
       </c>
       <c r="N30" t="n">
-        <v>166.0410294042035</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="O30" t="n">
-        <v>326.2912205105329</v>
+        <v>124.5131333158985</v>
       </c>
       <c r="P30" t="n">
         <v>282.4720541527919</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>125.4897998081731</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>87.70016267016875</v>
       </c>
       <c r="K32" t="n">
-        <v>29.74213367476443</v>
+        <v>239.7883610208792</v>
       </c>
       <c r="L32" t="n">
-        <v>82.37264525410569</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="M32" t="n">
-        <v>326.2912205105329</v>
+        <v>142.5152155954803</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1293871351404</v>
+        <v>326.2912205105328</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2912205105329</v>
+        <v>114.3319385688295</v>
       </c>
       <c r="P32" t="n">
-        <v>263.5888424038376</v>
+        <v>55.06327950871685</v>
       </c>
       <c r="Q32" t="n">
-        <v>119.5659488962264</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>45.48905194475186</v>
       </c>
       <c r="K33" t="n">
-        <v>34.40977984271362</v>
+        <v>205.7832534268646</v>
       </c>
       <c r="L33" t="n">
-        <v>152.5149381079187</v>
+        <v>323.2214195109065</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2912205105329</v>
+        <v>144.4614566297233</v>
       </c>
       <c r="N33" t="n">
-        <v>326.2912205105329</v>
+        <v>166.0410294042035</v>
       </c>
       <c r="O33" t="n">
         <v>124.5131333158985</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>87.70016267016875</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>29.74213367476443</v>
       </c>
       <c r="L35" t="n">
-        <v>89.98805754558492</v>
+        <v>82.37264525410569</v>
       </c>
       <c r="M35" t="n">
         <v>130.6824228717254</v>
@@ -37323,7 +37323,7 @@
         <v>114.3319385688295</v>
       </c>
       <c r="P35" t="n">
-        <v>55.06327950871685</v>
+        <v>150.3788544703648</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>29.74213367476443</v>
+        <v>125.0577086364124</v>
       </c>
       <c r="L38" t="n">
         <v>82.37264525410569</v>
@@ -37563,7 +37563,7 @@
         <v>55.06327950871685</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.31557496164805</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -38028,16 +38028,16 @@
         <v>130.6824228717254</v>
       </c>
       <c r="N44" t="n">
-        <v>138.48270435278</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="O44" t="n">
         <v>114.3319385688295</v>
       </c>
       <c r="P44" t="n">
-        <v>55.06327950871685</v>
+        <v>125.7159485678785</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.31557496164656</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>34.40977984271262</v>
+        <v>34.40977984271362</v>
       </c>
       <c r="L45" t="n">
         <v>103.3525390748555</v>
@@ -38107,7 +38107,7 @@
         <v>144.4614566297233</v>
       </c>
       <c r="N45" t="n">
-        <v>163.145610255266</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="O45" t="n">
         <v>124.5131333158985</v>
